--- a/tests/test_xls/sheet_txns_pivot/test_rows/test_rows_payee/expected_result.xlsx
+++ b/tests/test_xls/sheet_txns_pivot/test_rows/test_rows_payee/expected_result.xlsx
@@ -524,22 +524,22 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>78455.41</v>
+        <v>81716.10000000001</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>88341.75999999999</v>
+        <v>76255.21000000001</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>87689.64</v>
+        <v>76187.89999999999</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>130019.21</v>
+        <v>68580.99000000001</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>81024.71000000001</v>
+        <v>110584.34</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>465530.73</v>
+        <v>413324.54</v>
       </c>
     </row>
     <row r="4">
@@ -549,22 +549,22 @@
         </is>
       </c>
       <c r="B4" s="6" t="n">
-        <v>-20982.86</v>
+        <v>-23546.99</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>-14467.88</v>
+        <v>-12433.3</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>-13275.46</v>
+        <v>-16701.58</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>-13904.97</v>
+        <v>-17088.3</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>-13332.77</v>
+        <v>-19492.48</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>-75963.94</v>
+        <v>-89262.64999999999</v>
       </c>
     </row>
     <row r="5">
@@ -574,22 +574,22 @@
         </is>
       </c>
       <c r="B5" s="6" t="n">
-        <v>-15671.12</v>
+        <v>-24322.07</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>-19495.76</v>
+        <v>-17363.31</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-17522.46</v>
+        <v>-15047.77</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-21771.25</v>
+        <v>-18153.58</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-21751.09</v>
+        <v>-18839.59</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-96211.67999999999</v>
+        <v>-93726.32000000001</v>
       </c>
     </row>
     <row r="6">
@@ -599,22 +599,22 @@
         </is>
       </c>
       <c r="B6" s="6" t="n">
-        <v>-8203.99</v>
+        <v>-12972.63</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>-11177.14</v>
+        <v>-11891.43</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>-13415.11</v>
+        <v>-15180.02</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>-11598.27</v>
+        <v>-14769.04</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>-16020.49</v>
+        <v>-12670.83</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-60415</v>
+        <v>-67483.95</v>
       </c>
     </row>
     <row r="7">
@@ -624,22 +624,22 @@
         </is>
       </c>
       <c r="B7" s="6" t="n">
-        <v>-14249.09</v>
+        <v>-11891.18</v>
       </c>
       <c r="C7" s="6" t="n">
-        <v>-19678.52</v>
+        <v>-20277.56</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-11332.62</v>
+        <v>-16132.08</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-17478.59</v>
+        <v>-18620.19</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>-9956.629999999999</v>
+        <v>-13311.51</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>-72695.45</v>
+        <v>-80232.52</v>
       </c>
     </row>
     <row r="8">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="B8" s="6" t="n">
-        <v>77451.77</v>
+        <v>57327.05</v>
       </c>
       <c r="C8" s="6" t="n">
-        <v>79260.99000000001</v>
+        <v>69089.91</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>61175.43</v>
+        <v>46505.97</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>97452.99000000001</v>
+        <v>68042.99000000001</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>82544.28999999999</v>
+        <v>97647.47</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>397885.47</v>
+        <v>338613.39</v>
       </c>
     </row>
     <row r="9">
@@ -674,22 +674,22 @@
         </is>
       </c>
       <c r="B9" s="6" t="n">
-        <v>-14288.72</v>
+        <v>-22686.33</v>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-20206.72</v>
+        <v>-12307.34</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-17812.61</v>
+        <v>-20829.45</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-13849.01</v>
+        <v>-15279.92</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-21540.93</v>
+        <v>-17002.62</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-87697.99000000001</v>
+        <v>-88105.66</v>
       </c>
     </row>
     <row r="10">
@@ -699,22 +699,22 @@
         </is>
       </c>
       <c r="B10" s="6" t="n">
-        <v>-16849.53</v>
+        <v>-18135.67</v>
       </c>
       <c r="C10" s="6" t="n">
-        <v>-12233.2</v>
+        <v>-16482.58</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>-20430.51</v>
+        <v>-15629.56</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>-17959.24</v>
+        <v>-19907.67</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>-11888.14</v>
+        <v>-12846.96</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>-79360.62</v>
+        <v>-83002.44</v>
       </c>
     </row>
     <row r="11">
@@ -724,22 +724,22 @@
         </is>
       </c>
       <c r="B11" s="6" t="n">
-        <v>-22811.3</v>
+        <v>-24328.03</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>-14797.57</v>
+        <v>-23259.89</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-22246.11</v>
+        <v>-18180.72</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-20279.89</v>
+        <v>-13566.12</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-17545.77</v>
+        <v>-12676.5</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-97680.64</v>
+        <v>-92011.25999999999</v>
       </c>
     </row>
     <row r="12">
@@ -749,22 +749,22 @@
         </is>
       </c>
       <c r="B12" s="6" t="n">
-        <v>-16888.17</v>
+        <v>-13666.72</v>
       </c>
       <c r="C12" s="6" t="n">
-        <v>-16857.85</v>
+        <v>-18150.04</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>-16102.19</v>
+        <v>-17989.96</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>-18770.29</v>
+        <v>-23666.17</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>-20380.49</v>
+        <v>-17427.45</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-88998.99000000001</v>
+        <v>-90900.34</v>
       </c>
     </row>
     <row r="13">
@@ -774,22 +774,22 @@
         </is>
       </c>
       <c r="B13" s="6" t="n">
-        <v>-16305.08</v>
+        <v>-16484.8</v>
       </c>
       <c r="C13" s="6" t="n">
-        <v>-13697.41</v>
+        <v>-14390.87</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-20799.82</v>
+        <v>-18230.71</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-16242.63</v>
+        <v>-30849.23</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-19790.94</v>
+        <v>-13264.47</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>-86835.88</v>
+        <v>-93220.08</v>
       </c>
     </row>
     <row r="14">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="B14" s="6" t="n">
-        <v>-16779.25</v>
+        <v>-11866.61</v>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-23981.26</v>
+        <v>-20344.57</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-15415.18</v>
+        <v>-15438.74</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-13403.03</v>
+        <v>-15008.15</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-18507.8</v>
+        <v>-18061.25</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-88086.52</v>
+        <v>-80719.32000000001</v>
       </c>
     </row>
     <row r="15">
@@ -824,22 +824,22 @@
         </is>
       </c>
       <c r="B15" s="6" t="n">
-        <v>-16348.84</v>
+        <v>-15592</v>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-13779.37</v>
+        <v>-18102.8</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-16744.92</v>
+        <v>-12464.41</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-10445.94</v>
+        <v>-15161.04</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-18487.47</v>
+        <v>-12295.02</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-75806.53999999999</v>
+        <v>-73615.27</v>
       </c>
     </row>
     <row r="16">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="B16" s="6" t="n">
-        <v>-23699.55</v>
+        <v>-17838.35</v>
       </c>
       <c r="C16" s="6" t="n">
-        <v>-21235.1</v>
+        <v>-22945.35</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>-15758.17</v>
+        <v>-16119.28</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>-14157.92</v>
+        <v>-19638.93</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>-14404.35</v>
+        <v>-20240.81</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>-89255.09</v>
+        <v>-96782.72</v>
       </c>
     </row>
     <row r="17">
@@ -874,22 +874,22 @@
         </is>
       </c>
       <c r="B17" s="6" t="n">
-        <v>-12730</v>
+        <v>-17905.11</v>
       </c>
       <c r="C17" s="6" t="n">
-        <v>-16495.33</v>
+        <v>-17650.67</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-16096.35</v>
+        <v>-19095.81</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-21059.89</v>
+        <v>-25506.55</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-17602.83</v>
+        <v>-17105.98</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-83984.39999999999</v>
+        <v>-97264.12</v>
       </c>
     </row>
     <row r="18">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="B18" s="6" t="n">
-        <v>405743.87</v>
+        <v>452802.19</v>
       </c>
       <c r="C18" s="6" t="n">
-        <v>471555.5</v>
+        <v>439948.04</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>487534.98</v>
+        <v>521104.54</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>493650.42</v>
+        <v>400785.61</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>402524.61</v>
+        <v>439761.29</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2261009.38</v>
+        <v>2254401.67</v>
       </c>
     </row>
     <row r="19">
@@ -924,22 +924,22 @@
         </is>
       </c>
       <c r="B19" s="6" t="n">
-        <v>-25840.38</v>
+        <v>-14587.84</v>
       </c>
       <c r="C19" s="6" t="n">
-        <v>-17145.55</v>
+        <v>-19625.88</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-20164.97</v>
+        <v>-20112.34</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-22354.83</v>
+        <v>-18387.95</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>-18514.98</v>
+        <v>-16297.45</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>-104020.71</v>
+        <v>-89011.46000000001</v>
       </c>
     </row>
     <row r="20">
@@ -949,22 +949,22 @@
         </is>
       </c>
       <c r="B20" s="7" t="n">
-        <v>320003.17</v>
+        <v>346021.01</v>
       </c>
       <c r="C20" s="7" t="n">
-        <v>403909.59</v>
+        <v>340067.57</v>
       </c>
       <c r="D20" s="7" t="n">
-        <v>399283.57</v>
+        <v>406645.98</v>
       </c>
       <c r="E20" s="7" t="n">
-        <v>487846.87</v>
+        <v>271806.75</v>
       </c>
       <c r="F20" s="7" t="n">
-        <v>326368.93</v>
+        <v>426460.18</v>
       </c>
       <c r="G20" s="7" t="n">
-        <v>1937412.13</v>
+        <v>1791001.49</v>
       </c>
     </row>
   </sheetData>
